--- a/Code/Results/Cases/Case_1_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019194007969651</v>
+        <v>1.043564110620407</v>
       </c>
       <c r="D2">
-        <v>1.050616188781855</v>
+        <v>1.057437346453313</v>
       </c>
       <c r="E2">
-        <v>1.035050682549257</v>
+        <v>1.052412955094316</v>
       </c>
       <c r="F2">
-        <v>1.050739164440387</v>
+        <v>1.065300448093593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061770114634824</v>
+        <v>1.049309076013587</v>
       </c>
       <c r="J2">
-        <v>1.04081540291206</v>
+        <v>1.048633882364249</v>
       </c>
       <c r="K2">
-        <v>1.06141267828735</v>
+        <v>1.060172318341023</v>
       </c>
       <c r="L2">
-        <v>1.04604238329732</v>
+        <v>1.055161757196498</v>
       </c>
       <c r="M2">
-        <v>1.061534140331845</v>
+        <v>1.068014059272366</v>
       </c>
       <c r="N2">
-        <v>1.04229348016739</v>
+        <v>1.050123062757194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023289608414152</v>
+        <v>1.04443893259701</v>
       </c>
       <c r="D3">
-        <v>1.053482438960888</v>
+        <v>1.058058656770746</v>
       </c>
       <c r="E3">
-        <v>1.038351718702456</v>
+        <v>1.053163349265108</v>
       </c>
       <c r="F3">
-        <v>1.054141982739439</v>
+        <v>1.066067987594076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063114309735316</v>
+        <v>1.049536468800306</v>
       </c>
       <c r="J3">
-        <v>1.043164900550938</v>
+        <v>1.049155973309636</v>
       </c>
       <c r="K3">
-        <v>1.063473850209807</v>
+        <v>1.060607954033397</v>
       </c>
       <c r="L3">
-        <v>1.048516316792305</v>
+        <v>1.055725152340717</v>
       </c>
       <c r="M3">
-        <v>1.064125984106089</v>
+        <v>1.068597090606235</v>
       </c>
       <c r="N3">
-        <v>1.044646314362407</v>
+        <v>1.050645895131608</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025890852960655</v>
+        <v>1.045005659924496</v>
       </c>
       <c r="D4">
-        <v>1.05530519442174</v>
+        <v>1.058461066496904</v>
       </c>
       <c r="E4">
-        <v>1.040453738488156</v>
+        <v>1.053649811954028</v>
       </c>
       <c r="F4">
-        <v>1.056308028989686</v>
+        <v>1.06656545401872</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063958569548342</v>
+        <v>1.049682583104031</v>
       </c>
       <c r="J4">
-        <v>1.044654680587744</v>
+        <v>1.049493796657062</v>
       </c>
       <c r="K4">
-        <v>1.064778990499503</v>
+        <v>1.060889525731639</v>
       </c>
       <c r="L4">
-        <v>1.050087258984071</v>
+        <v>1.056089946498114</v>
       </c>
       <c r="M4">
-        <v>1.065771237788738</v>
+        <v>1.068974502373305</v>
       </c>
       <c r="N4">
-        <v>1.046138210057746</v>
+        <v>1.050984198226936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026973084274547</v>
+        <v>1.045244068299901</v>
       </c>
       <c r="D5">
-        <v>1.056064037737905</v>
+        <v>1.058630328756671</v>
       </c>
       <c r="E5">
-        <v>1.041329533878813</v>
+        <v>1.053854536295352</v>
       </c>
       <c r="F5">
-        <v>1.05721030568878</v>
+        <v>1.066774782543493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064307504130869</v>
+        <v>1.049743763547293</v>
       </c>
       <c r="J5">
-        <v>1.045273875378591</v>
+        <v>1.049635815260602</v>
       </c>
       <c r="K5">
-        <v>1.065320986137147</v>
+        <v>1.061007821999007</v>
       </c>
       <c r="L5">
-        <v>1.050740726530857</v>
+        <v>1.056243361949563</v>
       </c>
       <c r="M5">
-        <v>1.066455474501274</v>
+        <v>1.069133200967792</v>
       </c>
       <c r="N5">
-        <v>1.046758284176218</v>
+        <v>1.051126418513183</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027154141645209</v>
+        <v>1.045284107229902</v>
       </c>
       <c r="D6">
-        <v>1.056191019893892</v>
+        <v>1.058658753812133</v>
       </c>
       <c r="E6">
-        <v>1.041476127655415</v>
+        <v>1.053888922992698</v>
       </c>
       <c r="F6">
-        <v>1.057361320361029</v>
+        <v>1.06680994102194</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0643657437376</v>
+        <v>1.049754021561969</v>
       </c>
       <c r="J6">
-        <v>1.045377429519986</v>
+        <v>1.049659660635196</v>
       </c>
       <c r="K6">
-        <v>1.065411601963898</v>
+        <v>1.061027679938518</v>
       </c>
       <c r="L6">
-        <v>1.050850044090855</v>
+        <v>1.056269124320563</v>
       </c>
       <c r="M6">
-        <v>1.066569930802579</v>
+        <v>1.069159849148146</v>
       </c>
       <c r="N6">
-        <v>1.046861985376371</v>
+        <v>1.051150297750944</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025905357835138</v>
+        <v>1.04500884493704</v>
       </c>
       <c r="D7">
-        <v>1.055315363117542</v>
+        <v>1.058463327839306</v>
       </c>
       <c r="E7">
-        <v>1.040465471615688</v>
+        <v>1.053652546646512</v>
       </c>
       <c r="F7">
-        <v>1.056320117667967</v>
+        <v>1.066568250318308</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063963255421133</v>
+        <v>1.049683401567826</v>
       </c>
       <c r="J7">
-        <v>1.044662981980444</v>
+        <v>1.049495694327356</v>
       </c>
       <c r="K7">
-        <v>1.064786258738283</v>
+        <v>1.060891106714365</v>
       </c>
       <c r="L7">
-        <v>1.050096017735396</v>
+        <v>1.056091996224684</v>
       </c>
       <c r="M7">
-        <v>1.065780409526471</v>
+        <v>1.068976622777383</v>
       </c>
       <c r="N7">
-        <v>1.046146523239375</v>
+        <v>1.05098609859214</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020588485298885</v>
+        <v>1.043859623410829</v>
       </c>
       <c r="D8">
-        <v>1.051591575853552</v>
+        <v>1.057647241302068</v>
       </c>
       <c r="E8">
-        <v>1.036173464300348</v>
+        <v>1.052666365319675</v>
       </c>
       <c r="F8">
-        <v>1.051896725688857</v>
+        <v>1.065559671307905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062229749579774</v>
+        <v>1.049386135989852</v>
       </c>
       <c r="J8">
-        <v>1.041615861511917</v>
+        <v>1.048810325587958</v>
       </c>
       <c r="K8">
-        <v>1.062115273715088</v>
+        <v>1.060319607599443</v>
       </c>
       <c r="L8">
-        <v>1.04688476101611</v>
+        <v>1.055352108707872</v>
       </c>
       <c r="M8">
-        <v>1.062416779490081</v>
+        <v>1.068211065118846</v>
       </c>
       <c r="N8">
-        <v>1.043095075510273</v>
+        <v>1.050299756550519</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010827589869021</v>
+        <v>1.041839664615783</v>
       </c>
       <c r="D9">
-        <v>1.044776353969372</v>
+        <v>1.056212188099239</v>
       </c>
       <c r="E9">
-        <v>1.028338969826481</v>
+        <v>1.050935618777216</v>
       </c>
       <c r="F9">
-        <v>1.043816513341466</v>
+        <v>1.063788770521911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058974016005249</v>
+        <v>1.048854510968434</v>
       </c>
       <c r="J9">
-        <v>1.036003707600194</v>
+        <v>1.04760264102452</v>
       </c>
       <c r="K9">
-        <v>1.057182460241759</v>
+        <v>1.059310210839916</v>
       </c>
       <c r="L9">
-        <v>1.040988410381414</v>
+        <v>1.054050232232886</v>
       </c>
       <c r="M9">
-        <v>1.056236561597926</v>
+        <v>1.066863285071965</v>
       </c>
       <c r="N9">
-        <v>1.037474951696272</v>
+        <v>1.049090356936477</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004031019277813</v>
+        <v>1.040496558220531</v>
       </c>
       <c r="D10">
-        <v>1.040049089926339</v>
+        <v>1.055257610827301</v>
       </c>
       <c r="E10">
-        <v>1.022916945431071</v>
+        <v>1.049786623853999</v>
       </c>
       <c r="F10">
-        <v>1.038220903291462</v>
+        <v>1.062612552543502</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056660088820922</v>
+        <v>1.048494897491414</v>
       </c>
       <c r="J10">
-        <v>1.032085612176266</v>
+        <v>1.046797609280038</v>
       </c>
       <c r="K10">
-        <v>1.053731031308838</v>
+        <v>1.058635786374438</v>
       </c>
       <c r="L10">
-        <v>1.03688439852723</v>
+        <v>1.053183676965723</v>
       </c>
       <c r="M10">
-        <v>1.051932734463271</v>
+        <v>1.065965686647107</v>
       </c>
       <c r="N10">
-        <v>1.033551292127431</v>
+        <v>1.048284181954579</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001013229833591</v>
+        <v>1.039915835719327</v>
       </c>
       <c r="D11">
-        <v>1.037955359174545</v>
+        <v>1.054844795749813</v>
       </c>
       <c r="E11">
-        <v>1.020518006597838</v>
+        <v>1.049290266421622</v>
       </c>
       <c r="F11">
-        <v>1.035744431356308</v>
+        <v>1.062104301372361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055622139631053</v>
+        <v>1.048337958982393</v>
       </c>
       <c r="J11">
-        <v>1.030343917924834</v>
+        <v>1.046449059298087</v>
       </c>
       <c r="K11">
-        <v>1.052195314333999</v>
+        <v>1.058343416149489</v>
       </c>
       <c r="L11">
-        <v>1.035063086121059</v>
+        <v>1.052808790032275</v>
       </c>
       <c r="M11">
-        <v>1.050022338661734</v>
+        <v>1.065577255125977</v>
       </c>
       <c r="N11">
-        <v>1.031807124470386</v>
+        <v>1.047935136991675</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9998804830013559</v>
+        <v>1.039700258997045</v>
       </c>
       <c r="D12">
-        <v>1.037170335595512</v>
+        <v>1.054691538350113</v>
       </c>
       <c r="E12">
-        <v>1.019618889583842</v>
+        <v>1.049106074055661</v>
       </c>
       <c r="F12">
-        <v>1.034816154801962</v>
+        <v>1.061915675360019</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055231010429585</v>
+        <v>1.04827948206074</v>
       </c>
       <c r="J12">
-        <v>1.029689901862809</v>
+        <v>1.04631959871647</v>
       </c>
       <c r="K12">
-        <v>1.051618453013264</v>
+        <v>1.058234767134025</v>
       </c>
       <c r="L12">
-        <v>1.034379633648737</v>
+        <v>1.052669592439883</v>
       </c>
       <c r="M12">
-        <v>1.049305407046045</v>
+        <v>1.06543301120318</v>
       </c>
       <c r="N12">
-        <v>1.031152179630536</v>
+        <v>1.047805492561183</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000124004691047</v>
+        <v>1.039746495051935</v>
       </c>
       <c r="D13">
-        <v>1.03733906181867</v>
+        <v>1.054724408909322</v>
       </c>
       <c r="E13">
-        <v>1.019812123220756</v>
+        <v>1.049145575909102</v>
       </c>
       <c r="F13">
-        <v>1.035015659632788</v>
+        <v>1.061956128957603</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055315164870427</v>
+        <v>1.048292033825208</v>
       </c>
       <c r="J13">
-        <v>1.029830515499593</v>
+        <v>1.046347368140462</v>
       </c>
       <c r="K13">
-        <v>1.051742486497192</v>
+        <v>1.058258074943337</v>
       </c>
       <c r="L13">
-        <v>1.034526555205289</v>
+        <v>1.052699448414866</v>
       </c>
       <c r="M13">
-        <v>1.049459527698615</v>
+        <v>1.065463950321465</v>
       </c>
       <c r="N13">
-        <v>1.031292992954813</v>
+        <v>1.047833301420942</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000919840834053</v>
+        <v>1.039898013430039</v>
       </c>
       <c r="D14">
-        <v>1.037890619906066</v>
+        <v>1.054832125792189</v>
       </c>
       <c r="E14">
-        <v>1.020443851544407</v>
+        <v>1.049275037404025</v>
       </c>
       <c r="F14">
-        <v>1.035667873341027</v>
+        <v>1.062088706189319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055589923851898</v>
+        <v>1.04833312898948</v>
       </c>
       <c r="J14">
-        <v>1.030290002798978</v>
+        <v>1.046438357908037</v>
       </c>
       <c r="K14">
-        <v>1.052147763320338</v>
+        <v>1.058334436193775</v>
       </c>
       <c r="L14">
-        <v>1.035006734943849</v>
+        <v>1.052797282844561</v>
       </c>
       <c r="M14">
-        <v>1.049963228063091</v>
+        <v>1.065565331117537</v>
       </c>
       <c r="N14">
-        <v>1.031753132778868</v>
+        <v>1.047924420404424</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001408599977935</v>
+        <v>1.03999138610627</v>
       </c>
       <c r="D15">
-        <v>1.038229474340135</v>
+        <v>1.054898504442675</v>
       </c>
       <c r="E15">
-        <v>1.020832003234134</v>
+        <v>1.04935482639848</v>
       </c>
       <c r="F15">
-        <v>1.036068598880652</v>
+        <v>1.06217041280491</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055758465827277</v>
+        <v>1.048358424856283</v>
       </c>
       <c r="J15">
-        <v>1.030572161767033</v>
+        <v>1.046494420593394</v>
       </c>
       <c r="K15">
-        <v>1.052396608792398</v>
+        <v>1.058381478336509</v>
       </c>
       <c r="L15">
-        <v>1.035301661542714</v>
+        <v>1.052857568813433</v>
       </c>
       <c r="M15">
-        <v>1.050272594728867</v>
+        <v>1.065627800101508</v>
       </c>
       <c r="N15">
-        <v>1.032035692445021</v>
+        <v>1.047980562705225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004229676164499</v>
+        <v>1.040535116931559</v>
       </c>
       <c r="D16">
-        <v>1.040187033785494</v>
+        <v>1.055285019189393</v>
       </c>
       <c r="E16">
-        <v>1.023075047063483</v>
+        <v>1.04981959016541</v>
       </c>
       <c r="F16">
-        <v>1.038384100251617</v>
+        <v>1.062646305982305</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056728200453914</v>
+        <v>1.048505287277778</v>
       </c>
       <c r="J16">
-        <v>1.032200227211185</v>
+        <v>1.046820742221723</v>
       </c>
       <c r="K16">
-        <v>1.053832063545976</v>
+        <v>1.058655182978373</v>
       </c>
       <c r="L16">
-        <v>1.03700431656124</v>
+        <v>1.05320856420483</v>
       </c>
       <c r="M16">
-        <v>1.052058510290421</v>
+        <v>1.065991470646002</v>
       </c>
       <c r="N16">
-        <v>1.033666069928846</v>
+        <v>1.048307347747695</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005978841875528</v>
+        <v>1.04087641396079</v>
       </c>
       <c r="D17">
-        <v>1.041402232350314</v>
+        <v>1.055527611090253</v>
       </c>
       <c r="E17">
-        <v>1.024468104729399</v>
+        <v>1.050111437404529</v>
       </c>
       <c r="F17">
-        <v>1.039821971220741</v>
+        <v>1.062945106132344</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057326726761003</v>
+        <v>1.048597083225308</v>
       </c>
       <c r="J17">
-        <v>1.033209185142041</v>
+        <v>1.047025445185366</v>
       </c>
       <c r="K17">
-        <v>1.054721288156244</v>
+        <v>1.058826780622605</v>
       </c>
       <c r="L17">
-        <v>1.03806030238799</v>
+        <v>1.053428825642239</v>
       </c>
       <c r="M17">
-        <v>1.053166034027884</v>
+        <v>1.066219655491669</v>
       </c>
       <c r="N17">
-        <v>1.034676460695692</v>
+        <v>1.048512341413027</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006991920493194</v>
+        <v>1.041075568790023</v>
       </c>
       <c r="D18">
-        <v>1.04210654246457</v>
+        <v>1.0556691611939</v>
       </c>
       <c r="E18">
-        <v>1.025275740050504</v>
+        <v>1.05028177923748</v>
       </c>
       <c r="F18">
-        <v>1.040655517065947</v>
+        <v>1.063119493246102</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057672375894887</v>
+        <v>1.048650508141627</v>
       </c>
       <c r="J18">
-        <v>1.033793359202854</v>
+        <v>1.047144848162628</v>
       </c>
       <c r="K18">
-        <v>1.05523599666786</v>
+        <v>1.058926837729437</v>
       </c>
       <c r="L18">
-        <v>1.038671992079325</v>
+        <v>1.053557332851786</v>
       </c>
       <c r="M18">
-        <v>1.05380753802767</v>
+        <v>1.066352774371778</v>
       </c>
       <c r="N18">
-        <v>1.035261464350678</v>
+        <v>1.048631913956211</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007336152783119</v>
+        <v>1.041143489309454</v>
       </c>
       <c r="D19">
-        <v>1.042345940137119</v>
+        <v>1.055717434604047</v>
       </c>
       <c r="E19">
-        <v>1.025550300233119</v>
+        <v>1.050339880387718</v>
       </c>
       <c r="F19">
-        <v>1.040938873472207</v>
+        <v>1.063178971992357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057789651527563</v>
+        <v>1.048668704598804</v>
       </c>
       <c r="J19">
-        <v>1.033991820933317</v>
+        <v>1.04718556199634</v>
       </c>
       <c r="K19">
-        <v>1.055410833973052</v>
+        <v>1.058960948995386</v>
       </c>
       <c r="L19">
-        <v>1.038879850231475</v>
+        <v>1.053601155947712</v>
       </c>
       <c r="M19">
-        <v>1.054025520354241</v>
+        <v>1.066398168240764</v>
       </c>
       <c r="N19">
-        <v>1.035460207919561</v>
+        <v>1.048672685608237</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005791919585451</v>
+        <v>1.040839787521899</v>
       </c>
       <c r="D20">
-        <v>1.041272319981135</v>
+        <v>1.055501578053291</v>
       </c>
       <c r="E20">
-        <v>1.024319153376314</v>
+        <v>1.050080113331098</v>
       </c>
       <c r="F20">
-        <v>1.039668235471578</v>
+        <v>1.062913037134969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05726286981821</v>
+        <v>1.048587246599128</v>
       </c>
       <c r="J20">
-        <v>1.033101383852745</v>
+        <v>1.047003482154223</v>
       </c>
       <c r="K20">
-        <v>1.054626294140919</v>
+        <v>1.05880837321196</v>
       </c>
       <c r="L20">
-        <v>1.037947446623117</v>
+        <v>1.053405190308735</v>
       </c>
       <c r="M20">
-        <v>1.053047674302967</v>
+        <v>1.066195171076294</v>
       </c>
       <c r="N20">
-        <v>1.0345685063162</v>
+        <v>1.04849034719186</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00068581751228</v>
+        <v>1.039853391457646</v>
       </c>
       <c r="D21">
-        <v>1.037728404228509</v>
+        <v>1.054800403617515</v>
       </c>
       <c r="E21">
-        <v>1.020258048333327</v>
+        <v>1.049236909322668</v>
       </c>
       <c r="F21">
-        <v>1.035476047675369</v>
+        <v>1.062049661035683</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055509169950033</v>
+        <v>1.048321032531991</v>
       </c>
       <c r="J21">
-        <v>1.030154892936299</v>
+        <v>1.046411563502359</v>
       </c>
       <c r="K21">
-        <v>1.052028598779631</v>
+        <v>1.058311951069538</v>
       </c>
       <c r="L21">
-        <v>1.034865527845048</v>
+        <v>1.052768471593489</v>
       </c>
       <c r="M21">
-        <v>1.049815105518997</v>
+        <v>1.065535475970121</v>
       </c>
       <c r="N21">
-        <v>1.031617831044687</v>
+        <v>1.047897587947616</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9974068010001343</v>
+        <v>1.039233954955167</v>
       </c>
       <c r="D22">
-        <v>1.035457704814423</v>
+        <v>1.054360014109381</v>
       </c>
       <c r="E22">
-        <v>1.017657936306089</v>
+        <v>1.048707777817752</v>
       </c>
       <c r="F22">
-        <v>1.032791432037453</v>
+        <v>1.061507755294181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054374118185592</v>
+        <v>1.0481525949835</v>
       </c>
       <c r="J22">
-        <v>1.02826123553543</v>
+        <v>1.046039438420809</v>
       </c>
       <c r="K22">
-        <v>1.050358010239564</v>
+        <v>1.057999543922409</v>
       </c>
       <c r="L22">
-        <v>1.032887518629981</v>
+        <v>1.052368443452422</v>
       </c>
       <c r="M22">
-        <v>1.047740120195791</v>
+        <v>1.065120913406746</v>
       </c>
       <c r="N22">
-        <v>1.029721484433103</v>
+        <v>1.047524934405767</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9991517701685423</v>
+        <v>1.039562258368102</v>
       </c>
       <c r="D23">
-        <v>1.036665574563012</v>
+        <v>1.054593428050336</v>
       </c>
       <c r="E23">
-        <v>1.019040859464113</v>
+        <v>1.048988182724228</v>
       </c>
       <c r="F23">
-        <v>1.03421935139209</v>
+        <v>1.061794940667439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05497896746694</v>
+        <v>1.048241986937253</v>
       </c>
       <c r="J23">
-        <v>1.029269095546551</v>
+        <v>1.046236704968902</v>
       </c>
       <c r="K23">
-        <v>1.051247239529583</v>
+        <v>1.058165183590282</v>
       </c>
       <c r="L23">
-        <v>1.033940017973276</v>
+        <v>1.052580476813094</v>
       </c>
       <c r="M23">
-        <v>1.048844243868746</v>
+        <v>1.065340660051358</v>
       </c>
       <c r="N23">
-        <v>1.030730775721042</v>
+        <v>1.047722481094985</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005876403870489</v>
+        <v>1.040856337179734</v>
       </c>
       <c r="D24">
-        <v>1.041331035658156</v>
+        <v>1.05551334110678</v>
       </c>
       <c r="E24">
-        <v>1.024386473234286</v>
+        <v>1.050094266984876</v>
       </c>
       <c r="F24">
-        <v>1.039737717897491</v>
+        <v>1.062927527419454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057291734704969</v>
+        <v>1.048591691712117</v>
       </c>
       <c r="J24">
-        <v>1.033150107987571</v>
+        <v>1.047013406292869</v>
       </c>
       <c r="K24">
-        <v>1.054669230071942</v>
+        <v>1.058816690830308</v>
       </c>
       <c r="L24">
-        <v>1.037998454395446</v>
+        <v>1.05341586999852</v>
       </c>
       <c r="M24">
-        <v>1.053101169840575</v>
+        <v>1.066206234460299</v>
       </c>
       <c r="N24">
-        <v>1.034617299644887</v>
+        <v>1.048500285423922</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01340002387013</v>
+        <v>1.042361256513359</v>
       </c>
       <c r="D25">
-        <v>1.046569620247836</v>
+        <v>1.056582817329933</v>
       </c>
       <c r="E25">
-        <v>1.030398187848418</v>
+        <v>1.051382213813723</v>
       </c>
       <c r="F25">
-        <v>1.045940961270501</v>
+        <v>1.064245826928296</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059840349987263</v>
+        <v>1.048992868482175</v>
       </c>
       <c r="J25">
-        <v>1.037484688634504</v>
+        <v>1.047914845907692</v>
       </c>
       <c r="K25">
-        <v>1.058485592327083</v>
+        <v>1.059571433265874</v>
       </c>
       <c r="L25">
-        <v>1.042542251145774</v>
+        <v>1.054386564601036</v>
       </c>
       <c r="M25">
-        <v>1.057865634129344</v>
+        <v>1.067211562986794</v>
       </c>
       <c r="N25">
-        <v>1.038958035893522</v>
+        <v>1.049403005186393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043564110620407</v>
+        <v>1.019194007969651</v>
       </c>
       <c r="D2">
-        <v>1.057437346453313</v>
+        <v>1.050616188781855</v>
       </c>
       <c r="E2">
-        <v>1.052412955094316</v>
+        <v>1.035050682549257</v>
       </c>
       <c r="F2">
-        <v>1.065300448093593</v>
+        <v>1.050739164440387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049309076013587</v>
+        <v>1.061770114634824</v>
       </c>
       <c r="J2">
-        <v>1.048633882364249</v>
+        <v>1.04081540291206</v>
       </c>
       <c r="K2">
-        <v>1.060172318341023</v>
+        <v>1.06141267828735</v>
       </c>
       <c r="L2">
-        <v>1.055161757196498</v>
+        <v>1.04604238329732</v>
       </c>
       <c r="M2">
-        <v>1.068014059272366</v>
+        <v>1.061534140331846</v>
       </c>
       <c r="N2">
-        <v>1.050123062757194</v>
+        <v>1.04229348016739</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04443893259701</v>
+        <v>1.023289608414151</v>
       </c>
       <c r="D3">
-        <v>1.058058656770746</v>
+        <v>1.053482438960887</v>
       </c>
       <c r="E3">
-        <v>1.053163349265108</v>
+        <v>1.038351718702454</v>
       </c>
       <c r="F3">
-        <v>1.066067987594076</v>
+        <v>1.054141982739437</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049536468800306</v>
+        <v>1.063114309735316</v>
       </c>
       <c r="J3">
-        <v>1.049155973309636</v>
+        <v>1.043164900550937</v>
       </c>
       <c r="K3">
-        <v>1.060607954033397</v>
+        <v>1.063473850209807</v>
       </c>
       <c r="L3">
-        <v>1.055725152340717</v>
+        <v>1.048516316792304</v>
       </c>
       <c r="M3">
-        <v>1.068597090606235</v>
+        <v>1.064125984106088</v>
       </c>
       <c r="N3">
-        <v>1.050645895131608</v>
+        <v>1.044646314362406</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045005659924496</v>
+        <v>1.025890852960654</v>
       </c>
       <c r="D4">
-        <v>1.058461066496904</v>
+        <v>1.05530519442174</v>
       </c>
       <c r="E4">
-        <v>1.053649811954028</v>
+        <v>1.040453738488156</v>
       </c>
       <c r="F4">
-        <v>1.06656545401872</v>
+        <v>1.056308028989686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049682583104031</v>
+        <v>1.063958569548342</v>
       </c>
       <c r="J4">
-        <v>1.049493796657062</v>
+        <v>1.044654680587743</v>
       </c>
       <c r="K4">
-        <v>1.060889525731639</v>
+        <v>1.064778990499503</v>
       </c>
       <c r="L4">
-        <v>1.056089946498114</v>
+        <v>1.050087258984071</v>
       </c>
       <c r="M4">
-        <v>1.068974502373305</v>
+        <v>1.065771237788737</v>
       </c>
       <c r="N4">
-        <v>1.050984198226936</v>
+        <v>1.046138210057745</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045244068299901</v>
+        <v>1.026973084274546</v>
       </c>
       <c r="D5">
-        <v>1.058630328756671</v>
+        <v>1.056064037737905</v>
       </c>
       <c r="E5">
-        <v>1.053854536295352</v>
+        <v>1.041329533878812</v>
       </c>
       <c r="F5">
-        <v>1.066774782543493</v>
+        <v>1.057210305688779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049743763547293</v>
+        <v>1.064307504130869</v>
       </c>
       <c r="J5">
-        <v>1.049635815260602</v>
+        <v>1.04527387537859</v>
       </c>
       <c r="K5">
-        <v>1.061007821999007</v>
+        <v>1.065320986137146</v>
       </c>
       <c r="L5">
-        <v>1.056243361949563</v>
+        <v>1.050740726530856</v>
       </c>
       <c r="M5">
-        <v>1.069133200967792</v>
+        <v>1.066455474501274</v>
       </c>
       <c r="N5">
-        <v>1.051126418513183</v>
+        <v>1.046758284176218</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045284107229902</v>
+        <v>1.027154141645208</v>
       </c>
       <c r="D6">
-        <v>1.058658753812133</v>
+        <v>1.056191019893892</v>
       </c>
       <c r="E6">
-        <v>1.053888922992698</v>
+        <v>1.041476127655414</v>
       </c>
       <c r="F6">
-        <v>1.06680994102194</v>
+        <v>1.057361320361028</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049754021561969</v>
+        <v>1.0643657437376</v>
       </c>
       <c r="J6">
-        <v>1.049659660635196</v>
+        <v>1.045377429519985</v>
       </c>
       <c r="K6">
-        <v>1.061027679938518</v>
+        <v>1.065411601963897</v>
       </c>
       <c r="L6">
-        <v>1.056269124320563</v>
+        <v>1.050850044090854</v>
       </c>
       <c r="M6">
-        <v>1.069159849148146</v>
+        <v>1.066569930802578</v>
       </c>
       <c r="N6">
-        <v>1.051150297750944</v>
+        <v>1.04686198537637</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04500884493704</v>
+        <v>1.025905357835137</v>
       </c>
       <c r="D7">
-        <v>1.058463327839306</v>
+        <v>1.055315363117541</v>
       </c>
       <c r="E7">
-        <v>1.053652546646512</v>
+        <v>1.040465471615687</v>
       </c>
       <c r="F7">
-        <v>1.066568250318308</v>
+        <v>1.056320117667966</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049683401567826</v>
+        <v>1.063963255421132</v>
       </c>
       <c r="J7">
-        <v>1.049495694327356</v>
+        <v>1.044662981980442</v>
       </c>
       <c r="K7">
-        <v>1.060891106714365</v>
+        <v>1.064786258738283</v>
       </c>
       <c r="L7">
-        <v>1.056091996224684</v>
+        <v>1.050096017735395</v>
       </c>
       <c r="M7">
-        <v>1.068976622777383</v>
+        <v>1.06578040952647</v>
       </c>
       <c r="N7">
-        <v>1.05098609859214</v>
+        <v>1.046146523239374</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043859623410829</v>
+        <v>1.020588485298884</v>
       </c>
       <c r="D8">
-        <v>1.057647241302068</v>
+        <v>1.051591575853551</v>
       </c>
       <c r="E8">
-        <v>1.052666365319675</v>
+        <v>1.036173464300347</v>
       </c>
       <c r="F8">
-        <v>1.065559671307905</v>
+        <v>1.051896725688856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049386135989852</v>
+        <v>1.062229749579774</v>
       </c>
       <c r="J8">
-        <v>1.048810325587958</v>
+        <v>1.041615861511916</v>
       </c>
       <c r="K8">
-        <v>1.060319607599443</v>
+        <v>1.062115273715088</v>
       </c>
       <c r="L8">
-        <v>1.055352108707872</v>
+        <v>1.046884761016109</v>
       </c>
       <c r="M8">
-        <v>1.068211065118846</v>
+        <v>1.06241677949008</v>
       </c>
       <c r="N8">
-        <v>1.050299756550519</v>
+        <v>1.043095075510272</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041839664615783</v>
+        <v>1.01082758986902</v>
       </c>
       <c r="D9">
-        <v>1.056212188099239</v>
+        <v>1.044776353969371</v>
       </c>
       <c r="E9">
-        <v>1.050935618777216</v>
+        <v>1.02833896982648</v>
       </c>
       <c r="F9">
-        <v>1.063788770521911</v>
+        <v>1.043816513341465</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048854510968434</v>
+        <v>1.058974016005249</v>
       </c>
       <c r="J9">
-        <v>1.04760264102452</v>
+        <v>1.036003707600193</v>
       </c>
       <c r="K9">
-        <v>1.059310210839916</v>
+        <v>1.057182460241758</v>
       </c>
       <c r="L9">
-        <v>1.054050232232886</v>
+        <v>1.040988410381413</v>
       </c>
       <c r="M9">
-        <v>1.066863285071965</v>
+        <v>1.056236561597925</v>
       </c>
       <c r="N9">
-        <v>1.049090356936477</v>
+        <v>1.037474951696271</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040496558220531</v>
+        <v>1.004031019277813</v>
       </c>
       <c r="D10">
-        <v>1.055257610827301</v>
+        <v>1.04004908992634</v>
       </c>
       <c r="E10">
-        <v>1.049786623853999</v>
+        <v>1.022916945431071</v>
       </c>
       <c r="F10">
-        <v>1.062612552543502</v>
+        <v>1.038220903291463</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048494897491414</v>
+        <v>1.056660088820922</v>
       </c>
       <c r="J10">
-        <v>1.046797609280038</v>
+        <v>1.032085612176267</v>
       </c>
       <c r="K10">
-        <v>1.058635786374438</v>
+        <v>1.053731031308839</v>
       </c>
       <c r="L10">
-        <v>1.053183676965723</v>
+        <v>1.03688439852723</v>
       </c>
       <c r="M10">
-        <v>1.065965686647107</v>
+        <v>1.051932734463272</v>
       </c>
       <c r="N10">
-        <v>1.048284181954579</v>
+        <v>1.033551292127431</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039915835719327</v>
+        <v>1.00101322983359</v>
       </c>
       <c r="D11">
-        <v>1.054844795749813</v>
+        <v>1.037955359174545</v>
       </c>
       <c r="E11">
-        <v>1.049290266421622</v>
+        <v>1.020518006597837</v>
       </c>
       <c r="F11">
-        <v>1.062104301372361</v>
+        <v>1.035744431356308</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048337958982393</v>
+        <v>1.055622139631053</v>
       </c>
       <c r="J11">
-        <v>1.046449059298087</v>
+        <v>1.030343917924834</v>
       </c>
       <c r="K11">
-        <v>1.058343416149489</v>
+        <v>1.052195314333999</v>
       </c>
       <c r="L11">
-        <v>1.052808790032275</v>
+        <v>1.035063086121059</v>
       </c>
       <c r="M11">
-        <v>1.065577255125977</v>
+        <v>1.050022338661735</v>
       </c>
       <c r="N11">
-        <v>1.047935136991675</v>
+        <v>1.031807124470386</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039700258997045</v>
+        <v>0.9998804830013551</v>
       </c>
       <c r="D12">
-        <v>1.054691538350113</v>
+        <v>1.037170335595511</v>
       </c>
       <c r="E12">
-        <v>1.049106074055661</v>
+        <v>1.019618889583841</v>
       </c>
       <c r="F12">
-        <v>1.061915675360019</v>
+        <v>1.034816154801961</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04827948206074</v>
+        <v>1.055231010429585</v>
       </c>
       <c r="J12">
-        <v>1.04631959871647</v>
+        <v>1.029689901862808</v>
       </c>
       <c r="K12">
-        <v>1.058234767134025</v>
+        <v>1.051618453013263</v>
       </c>
       <c r="L12">
-        <v>1.052669592439883</v>
+        <v>1.034379633648735</v>
       </c>
       <c r="M12">
-        <v>1.06543301120318</v>
+        <v>1.049305407046044</v>
       </c>
       <c r="N12">
-        <v>1.047805492561183</v>
+        <v>1.031152179630535</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039746495051935</v>
+        <v>1.000124004691047</v>
       </c>
       <c r="D13">
-        <v>1.054724408909322</v>
+        <v>1.03733906181867</v>
       </c>
       <c r="E13">
-        <v>1.049145575909102</v>
+        <v>1.019812123220755</v>
       </c>
       <c r="F13">
-        <v>1.061956128957603</v>
+        <v>1.035015659632787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048292033825208</v>
+        <v>1.055315164870426</v>
       </c>
       <c r="J13">
-        <v>1.046347368140462</v>
+        <v>1.029830515499592</v>
       </c>
       <c r="K13">
-        <v>1.058258074943337</v>
+        <v>1.051742486497191</v>
       </c>
       <c r="L13">
-        <v>1.052699448414866</v>
+        <v>1.034526555205288</v>
       </c>
       <c r="M13">
-        <v>1.065463950321465</v>
+        <v>1.049459527698614</v>
       </c>
       <c r="N13">
-        <v>1.047833301420942</v>
+        <v>1.031292992954812</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039898013430039</v>
+        <v>1.000919840834052</v>
       </c>
       <c r="D14">
-        <v>1.054832125792189</v>
+        <v>1.037890619906066</v>
       </c>
       <c r="E14">
-        <v>1.049275037404025</v>
+        <v>1.020443851544406</v>
       </c>
       <c r="F14">
-        <v>1.062088706189319</v>
+        <v>1.035667873341027</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04833312898948</v>
+        <v>1.055589923851897</v>
       </c>
       <c r="J14">
-        <v>1.046438357908037</v>
+        <v>1.030290002798977</v>
       </c>
       <c r="K14">
-        <v>1.058334436193775</v>
+        <v>1.052147763320338</v>
       </c>
       <c r="L14">
-        <v>1.052797282844561</v>
+        <v>1.035006734943849</v>
       </c>
       <c r="M14">
-        <v>1.065565331117537</v>
+        <v>1.04996322806309</v>
       </c>
       <c r="N14">
-        <v>1.047924420404424</v>
+        <v>1.031753132778867</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03999138610627</v>
+        <v>1.001408599977935</v>
       </c>
       <c r="D15">
-        <v>1.054898504442675</v>
+        <v>1.038229474340134</v>
       </c>
       <c r="E15">
-        <v>1.04935482639848</v>
+        <v>1.020832003234134</v>
       </c>
       <c r="F15">
-        <v>1.06217041280491</v>
+        <v>1.036068598880651</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048358424856283</v>
+        <v>1.055758465827276</v>
       </c>
       <c r="J15">
-        <v>1.046494420593394</v>
+        <v>1.030572161767032</v>
       </c>
       <c r="K15">
-        <v>1.058381478336509</v>
+        <v>1.052396608792397</v>
       </c>
       <c r="L15">
-        <v>1.052857568813433</v>
+        <v>1.035301661542714</v>
       </c>
       <c r="M15">
-        <v>1.065627800101508</v>
+        <v>1.050272594728867</v>
       </c>
       <c r="N15">
-        <v>1.047980562705225</v>
+        <v>1.032035692445021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040535116931559</v>
+        <v>1.004229676164499</v>
       </c>
       <c r="D16">
-        <v>1.055285019189393</v>
+        <v>1.040187033785494</v>
       </c>
       <c r="E16">
-        <v>1.04981959016541</v>
+        <v>1.023075047063483</v>
       </c>
       <c r="F16">
-        <v>1.062646305982305</v>
+        <v>1.038384100251616</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048505287277778</v>
+        <v>1.056728200453914</v>
       </c>
       <c r="J16">
-        <v>1.046820742221723</v>
+        <v>1.032200227211185</v>
       </c>
       <c r="K16">
-        <v>1.058655182978373</v>
+        <v>1.053832063545976</v>
       </c>
       <c r="L16">
-        <v>1.05320856420483</v>
+        <v>1.037004316561239</v>
       </c>
       <c r="M16">
-        <v>1.065991470646002</v>
+        <v>1.05205851029042</v>
       </c>
       <c r="N16">
-        <v>1.048307347747695</v>
+        <v>1.033666069928846</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04087641396079</v>
+        <v>1.005978841875527</v>
       </c>
       <c r="D17">
-        <v>1.055527611090253</v>
+        <v>1.041402232350314</v>
       </c>
       <c r="E17">
-        <v>1.050111437404529</v>
+        <v>1.024468104729398</v>
       </c>
       <c r="F17">
-        <v>1.062945106132344</v>
+        <v>1.039821971220741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048597083225308</v>
+        <v>1.057326726761002</v>
       </c>
       <c r="J17">
-        <v>1.047025445185366</v>
+        <v>1.03320918514204</v>
       </c>
       <c r="K17">
-        <v>1.058826780622605</v>
+        <v>1.054721288156243</v>
       </c>
       <c r="L17">
-        <v>1.053428825642239</v>
+        <v>1.038060302387989</v>
       </c>
       <c r="M17">
-        <v>1.066219655491669</v>
+        <v>1.053166034027884</v>
       </c>
       <c r="N17">
-        <v>1.048512341413027</v>
+        <v>1.034676460695692</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041075568790023</v>
+        <v>1.006991920493193</v>
       </c>
       <c r="D18">
-        <v>1.0556691611939</v>
+        <v>1.04210654246457</v>
       </c>
       <c r="E18">
-        <v>1.05028177923748</v>
+        <v>1.025275740050504</v>
       </c>
       <c r="F18">
-        <v>1.063119493246102</v>
+        <v>1.040655517065948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048650508141627</v>
+        <v>1.057672375894887</v>
       </c>
       <c r="J18">
-        <v>1.047144848162628</v>
+        <v>1.033793359202853</v>
       </c>
       <c r="K18">
-        <v>1.058926837729437</v>
+        <v>1.05523599666786</v>
       </c>
       <c r="L18">
-        <v>1.053557332851786</v>
+        <v>1.038671992079324</v>
       </c>
       <c r="M18">
-        <v>1.066352774371778</v>
+        <v>1.05380753802767</v>
       </c>
       <c r="N18">
-        <v>1.048631913956211</v>
+        <v>1.035261464350677</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041143489309454</v>
+        <v>1.007336152783117</v>
       </c>
       <c r="D19">
-        <v>1.055717434604047</v>
+        <v>1.042345940137119</v>
       </c>
       <c r="E19">
-        <v>1.050339880387718</v>
+        <v>1.025550300233118</v>
       </c>
       <c r="F19">
-        <v>1.063178971992357</v>
+        <v>1.040938873472206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048668704598804</v>
+        <v>1.057789651527562</v>
       </c>
       <c r="J19">
-        <v>1.04718556199634</v>
+        <v>1.033991820933315</v>
       </c>
       <c r="K19">
-        <v>1.058960948995386</v>
+        <v>1.055410833973052</v>
       </c>
       <c r="L19">
-        <v>1.053601155947712</v>
+        <v>1.038879850231474</v>
       </c>
       <c r="M19">
-        <v>1.066398168240764</v>
+        <v>1.05402552035424</v>
       </c>
       <c r="N19">
-        <v>1.048672685608237</v>
+        <v>1.03546020791956</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040839787521899</v>
+        <v>1.00579191958545</v>
       </c>
       <c r="D20">
-        <v>1.055501578053291</v>
+        <v>1.041272319981135</v>
       </c>
       <c r="E20">
-        <v>1.050080113331098</v>
+        <v>1.024319153376313</v>
       </c>
       <c r="F20">
-        <v>1.062913037134969</v>
+        <v>1.039668235471577</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048587246599128</v>
+        <v>1.05726286981821</v>
       </c>
       <c r="J20">
-        <v>1.047003482154223</v>
+        <v>1.033101383852744</v>
       </c>
       <c r="K20">
-        <v>1.05880837321196</v>
+        <v>1.054626294140919</v>
       </c>
       <c r="L20">
-        <v>1.053405190308735</v>
+        <v>1.037947446623117</v>
       </c>
       <c r="M20">
-        <v>1.066195171076294</v>
+        <v>1.053047674302966</v>
       </c>
       <c r="N20">
-        <v>1.04849034719186</v>
+        <v>1.0345685063162</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039853391457646</v>
+        <v>1.000685817512279</v>
       </c>
       <c r="D21">
-        <v>1.054800403617515</v>
+        <v>1.037728404228509</v>
       </c>
       <c r="E21">
-        <v>1.049236909322668</v>
+        <v>1.020258048333327</v>
       </c>
       <c r="F21">
-        <v>1.062049661035683</v>
+        <v>1.035476047675368</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048321032531991</v>
+        <v>1.055509169950033</v>
       </c>
       <c r="J21">
-        <v>1.046411563502359</v>
+        <v>1.030154892936299</v>
       </c>
       <c r="K21">
-        <v>1.058311951069538</v>
+        <v>1.052028598779631</v>
       </c>
       <c r="L21">
-        <v>1.052768471593489</v>
+        <v>1.034865527845047</v>
       </c>
       <c r="M21">
-        <v>1.065535475970121</v>
+        <v>1.049815105518996</v>
       </c>
       <c r="N21">
-        <v>1.047897587947616</v>
+        <v>1.031617831044686</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039233954955167</v>
+        <v>0.997406801000134</v>
       </c>
       <c r="D22">
-        <v>1.054360014109381</v>
+        <v>1.035457704814423</v>
       </c>
       <c r="E22">
-        <v>1.048707777817752</v>
+        <v>1.017657936306089</v>
       </c>
       <c r="F22">
-        <v>1.061507755294181</v>
+        <v>1.032791432037453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0481525949835</v>
+        <v>1.054374118185593</v>
       </c>
       <c r="J22">
-        <v>1.046039438420809</v>
+        <v>1.02826123553543</v>
       </c>
       <c r="K22">
-        <v>1.057999543922409</v>
+        <v>1.050358010239564</v>
       </c>
       <c r="L22">
-        <v>1.052368443452422</v>
+        <v>1.032887518629981</v>
       </c>
       <c r="M22">
-        <v>1.065120913406746</v>
+        <v>1.047740120195791</v>
       </c>
       <c r="N22">
-        <v>1.047524934405767</v>
+        <v>1.029721484433103</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039562258368102</v>
+        <v>0.9991517701685412</v>
       </c>
       <c r="D23">
-        <v>1.054593428050336</v>
+        <v>1.036665574563011</v>
       </c>
       <c r="E23">
-        <v>1.048988182724228</v>
+        <v>1.019040859464112</v>
       </c>
       <c r="F23">
-        <v>1.061794940667439</v>
+        <v>1.034219351392088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048241986937253</v>
+        <v>1.054978967466939</v>
       </c>
       <c r="J23">
-        <v>1.046236704968902</v>
+        <v>1.02926909554655</v>
       </c>
       <c r="K23">
-        <v>1.058165183590282</v>
+        <v>1.051247239529582</v>
       </c>
       <c r="L23">
-        <v>1.052580476813094</v>
+        <v>1.033940017973275</v>
       </c>
       <c r="M23">
-        <v>1.065340660051358</v>
+        <v>1.048844243868745</v>
       </c>
       <c r="N23">
-        <v>1.047722481094985</v>
+        <v>1.030730775721041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040856337179734</v>
+        <v>1.005876403870488</v>
       </c>
       <c r="D24">
-        <v>1.05551334110678</v>
+        <v>1.041331035658156</v>
       </c>
       <c r="E24">
-        <v>1.050094266984876</v>
+        <v>1.024386473234285</v>
       </c>
       <c r="F24">
-        <v>1.062927527419454</v>
+        <v>1.03973771789749</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048591691712117</v>
+        <v>1.057291734704968</v>
       </c>
       <c r="J24">
-        <v>1.047013406292869</v>
+        <v>1.033150107987571</v>
       </c>
       <c r="K24">
-        <v>1.058816690830308</v>
+        <v>1.054669230071942</v>
       </c>
       <c r="L24">
-        <v>1.05341586999852</v>
+        <v>1.037998454395446</v>
       </c>
       <c r="M24">
-        <v>1.066206234460299</v>
+        <v>1.053101169840575</v>
       </c>
       <c r="N24">
-        <v>1.048500285423922</v>
+        <v>1.034617299644886</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042361256513359</v>
+        <v>1.01340002387013</v>
       </c>
       <c r="D25">
-        <v>1.056582817329933</v>
+        <v>1.046569620247836</v>
       </c>
       <c r="E25">
-        <v>1.051382213813723</v>
+        <v>1.030398187848418</v>
       </c>
       <c r="F25">
-        <v>1.064245826928296</v>
+        <v>1.045940961270501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048992868482175</v>
+        <v>1.059840349987263</v>
       </c>
       <c r="J25">
-        <v>1.047914845907692</v>
+        <v>1.037484688634504</v>
       </c>
       <c r="K25">
-        <v>1.059571433265874</v>
+        <v>1.058485592327083</v>
       </c>
       <c r="L25">
-        <v>1.054386564601036</v>
+        <v>1.042542251145774</v>
       </c>
       <c r="M25">
-        <v>1.067211562986794</v>
+        <v>1.057865634129344</v>
       </c>
       <c r="N25">
-        <v>1.049403005186393</v>
+        <v>1.038958035893522</v>
       </c>
     </row>
   </sheetData>
